--- a/학습자료/단답형/국어_복습_띄어쓰기.xlsx
+++ b/학습자료/단답형/국어_복습_띄어쓰기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,25 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>대답</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
@@ -460,19 +465,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>1724</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>그는 [나 같이/나같이] 잘생겼다</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>띄어쓰기 X | like 의미로 쓰인 '같이'는 조사</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -483,19 +491,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>1725</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>너와 [같이 가다/같이가다]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>띄어쓰기 O | together 의미로 쓰인 '같이'는 부사</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -506,19 +517,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>1726</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>그 일을 할 사람은 [너 밖에/너밖에] 없다</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>띄어쓰기 X | only 의미로 쓰인 '밖에'는 조사</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -529,19 +543,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
         <v>1727</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>[집 밖에/집밖에] 나가라</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>띄어쓰기 O | outside 의미로 쓰인 '밖에'는 부사</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -552,19 +569,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>1728</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>[천 원은 커녕/천 원은커녕]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '은커녕'은 조사</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -575,19 +595,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>1729</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>그의 [말 마따나/말마따나]</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '마따나'는 조사</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -598,19 +621,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>1730</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>[하겠냐 마는/하겠나마는]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '마는'은 조사</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -621,19 +647,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>1731</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>[날 마다/날마다] 일했다</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '마다'는 조사</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -644,19 +673,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
         <v>1732</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>[동물 치고/동물치고] 똑똑하다</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '치고'는 조사</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -667,19 +699,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
         <v>1733</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>[그야 말로/그야말로] 최고</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '(이)야말로'는 조사</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -690,19 +725,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
         <v>1734</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>[짐승인 들/짐승인들] 이보다 잔혹하랴</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '(이)ㄴ들'은 조사</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -713,19 +751,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
         <v>1735</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>그런 학생은 어느 [학교에서 껀/학교에서껀] 있다</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '서껀'은 조사, cf) 서건X, 서껀O</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -736,19 +777,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
         <v>1736</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>참 [딱하데 그려/딱하데그려]</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '그려'는 조사</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -759,19 +803,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
         <v>1737</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>[아는 것/아는것]이 힘이다</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '것'은 의존명사</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -782,19 +829,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
         <v>1738</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>나도 [할 수 있다/할수있다]</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '수'는 의존명사</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -805,19 +855,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
         <v>1739</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>[먹을 만큼/먹을만큼] 먹어라</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '만큼'은 의존명사</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -828,19 +881,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
         <v>1740</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>[아는 이/아는이]를 만났다</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '이'는 의존명사</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -851,19 +907,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
         <v>1741</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>네가 [뜻한 바/뜻한바]를 알겠다</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '바'는 의존명사</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -874,19 +933,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
         <v>1742</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>그가 [떠난 지/떠난지]가 오래다</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '지'는 의존명사</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -897,19 +959,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
         <v>1743</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>[한 개/한 개]</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 단위를 나타내는 명사는 띄어 쓴다</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -920,19 +985,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
         <v>1744</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>차 [한 대/한대]</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 단위를 나타내는 명사는 띄어 쓴다</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -943,19 +1011,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
         <v>1745</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>금 [서 돈/서돈]</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 단위를 나타내는 명사는 띄어 쓴다</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -966,19 +1037,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
         <v>1746</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>소 [한 마리/한마리]</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 단위를 나타내는 명사는 띄어 쓴다</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -989,19 +1063,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
         <v>1747</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>[두 시/두시](2 o'clock)</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>띄어쓰기 O, X | 띄어쓰는게 원칙이나 붙여쓰는 것도 허용</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1012,19 +1089,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
         <v>1748</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>[먹을 걸/먹을걸] 가져오렴</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '걸'은 의존명사</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1035,19 +1115,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
         <v>1749</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>선물을 [줄 걸/줄걸]</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '-ㄹ걸'은 종결어미</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1058,19 +1141,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
         <v>1750</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>너보다 키가 더 [클 걸/클걸]</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '-ㄹ걸'은 종결어미</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1081,19 +1167,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
         <v>1751</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>[약속한 대로/약속한대로]</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '대로'는 의존명사로 쓰임</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1104,19 +1193,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
         <v>1752</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>[너 대로/너대로]</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '대로'는 조사로 쓰임</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1127,19 +1219,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
         <v>1753</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>[법 대로/법대로]</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '대로'는 조사로 쓰임</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1150,19 +1245,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
         <v>1754</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>[약속 대로/약속대로]</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '대로'는 조사로 쓰임</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1173,19 +1271,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
         <v>1755</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>[볼 만큼/볼만큼] 보았다</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '만큼'은 의존명사</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1196,19 +1297,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
         <v>1756</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>[할 만큼/할만큼] 했다</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '만큼'은 의존명사</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1219,19 +1323,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
         <v>1757</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>나도 [엄마 만큼/엄마만큼] 컸다</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '만큼'은 조사로 쓰임</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1242,19 +1349,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
         <v>1758</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>[웃을 뿐/웃을뿐]이다</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '뿐'은 의존명사</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1265,19 +1375,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
         <v>1759</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>[할 뿐/할뿐]이다</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '뿐'은 의존명사</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1288,19 +1401,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
         <v>1760</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>[엄마 뿐/엄마뿐]이다</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '뿐'은 조사</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1311,19 +1427,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
         <v>1761</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>[떠난 지/떠난지]</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '지'는 의존명사, 시간의 경과</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1334,19 +1453,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
         <v>1762</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>[큰 지 작은 지/큰지 작은지]</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 'ㄴ지'는 어미, 시간 X</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1357,19 +1479,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
         <v>1763</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>[오는 지/오는지]</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 'ㄴ지'는 어미, 시간 X</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1380,19 +1505,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
         <v>1764</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>[얼마 만인가?/얼마만인가?]</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '만'은 의존명사, 시간의 경과</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1403,19 +1531,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
         <v>1765</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>[2년 만에/2년만에]</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '만'은 의존명사, 시간의 경과</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1426,19 +1557,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
         <v>1766</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>[밥 만/밥만] 먹다</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '만'은 조사, 시간 X</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1449,19 +1583,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
         <v>1767</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>[짐승 만도/짐승만도] 못하다</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '만'은 조사, 시간 X</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1472,19 +1609,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
         <v>1768</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>[오랜 만/오랜만]</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1495,19 +1635,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
         <v>1769</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>[오랫 동안/오랫동안]</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1518,19 +1661,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
         <v>1770</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>[의지할 데/의지할데] 없는</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '데'는 의존명사 (곳, 장소, 일, 것, 경우)</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1541,19 +1687,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
         <v>1771</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>[가까운 데다가/가까운데다가]</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '데'는 의존명사 (곳, 장소, 일, 것, 경우)</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1564,19 +1713,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
         <v>1772</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>[예쁜 데다가/예쁜데다가]</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '데'는 의존명사 (곳, 장소, 일, 것, 경우)</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1587,19 +1739,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
         <v>1773</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>아주 [잘하 데/잘하데]</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '데'는 어미</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1610,19 +1765,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
         <v>1774</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>[둘이 데/둘이데]</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '데'는 어미</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1633,19 +1791,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
         <v>1775</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>나무가 정말 [큰 데/큰데]</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 'ㄴ데'는 어미</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1656,19 +1817,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
         <v>1776</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>열심히 공부 [했는 데/했는데] 떨어졌다</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 'ㄴ데'는 어미</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1679,19 +1843,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
         <v>1777</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>[지적한 바와/지적한바와] 같이</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '바'는 의존명사 (자체, 일 따위를 나타낼 때는 의존명사)</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1702,19 +1869,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
         <v>1778</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>그 일을 [할 바에는/할바에는] 감옥에 가겠다</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '바'는 의존명사 (자체, 일 따위를 나타낼 때는 의존명사)</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1725,19 +1895,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
         <v>1779</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>학문에 뜻을 [두셨던 바/두셨던바] 드디어 결실을 맺었다</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 'ㄴ바'는 어미</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1748,19 +1921,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
         <v>1780</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>통보하여 [온 바/온바] 이를 알립니다</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 'ㄴ바'는 어미</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1771,19 +1947,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
         <v>1781</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>[영웅 중/영웅중]의 영웅</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>띄어쓰기 O | -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1794,19 +1973,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
         <v>1782</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>[너희 중/너희중]에 누가</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>띄어쓰기 O | -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1817,19 +1999,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
         <v>1783</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>[여행하던 중/여행하던중]에</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>띄어쓰기 O | -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1840,19 +2025,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
         <v>1784</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>[근무 중/근무중]</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>띄어쓰기 O | -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1863,19 +2051,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
         <v>1785</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>[회의 중/회의중]</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>띄어쓰기 O | -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1886,19 +2077,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
         <v>1786</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>[그러던 중/그러던중]</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>띄어쓰기 O | -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1909,19 +2103,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
         <v>1787</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>[그 중/그중]</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1932,19 +2129,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
         <v>1788</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>[총망 중/총망중]</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1955,19 +2155,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
         <v>1789</v>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>[허공 중/허공중]</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -1978,19 +2181,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
         <v>1790</v>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>[은연 중/은연중]</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2001,19 +2207,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
         <v>1791</v>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>[한밤 중/한밤중]</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2024,19 +2233,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
         <v>1792</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>[야밤 중/야밤중]</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2047,19 +2259,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
         <v>1793</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>[밤 중/밤중]</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2070,19 +2285,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
         <v>1794</v>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>[부재 중/부재중]</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2093,19 +2311,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
         <v>1795</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>[부지 중/부지중]</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2116,19 +2337,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
         <v>1796</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>[부지불식 중/부지불식중]</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2139,19 +2363,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
         <v>1797</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>[무망 중/무망중]</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2162,19 +2389,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
         <v>1798</v>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>[무심 중/무심중]</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2185,19 +2415,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
         <v>1799</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>[무의식 중/무의식중]</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2208,19 +2441,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
         <v>1800</v>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>[무언 중/무언중]</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2231,19 +2467,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
         <v>1801</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>[열 시/열시]에 만난다</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 시각, 어떤 일이나 현상일 경우 의존명사</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2254,19 +2493,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
         <v>1802</v>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>[비행 시/비행시]에는</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 시각, 어떤 일이나 현상일 경우 의존명사</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2277,19 +2519,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
         <v>1803</v>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>규칙을 [어겼을 시/어겼을시]에는</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 시각, 어떤 일이나 현상일 경우 의존명사</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2300,19 +2545,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
         <v>1804</v>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>[등한 시/등한시]</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 접미사 -시, 부정적 의미</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2323,19 +2571,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
         <v>1805</v>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>[백안 시/백안시]</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 접미사 -시, 부정적 의미</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2346,19 +2597,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
         <v>1806</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>[적대 시/적대시]</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 접미사 -시, 부정적 의미</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2369,19 +2623,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
         <v>1807</v>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>[도외 시/도외시]</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 접미사 -시, 부정적 의미</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2392,19 +2649,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
         <v>1808</v>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>[조선 초/조선초]</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 기간의 처음, 초기의 의존명사</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2415,19 +2675,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
         <v>1809</v>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>[20C 초/20C초]</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 기간의 처음, 초기의 의존명사</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2438,19 +2701,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
         <v>1810</v>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>[내년 초/내년초]</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 기간의 처음, 초기의 의존명사</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2461,19 +2727,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
         <v>1811</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>[초 봄/초봄]</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 처음, 초기의 접두사</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2484,19 +2753,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
         <v>1812</v>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>[초 겨울/초겨울]</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 처음, 초기의 접두사</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2507,19 +2779,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
         <v>1813</v>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>[그런 식으로/그런식으로] 말하지 마</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 일정하게 굳어진 말투, 방식, 습관을 의미하는 의존명사</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2530,19 +2805,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
         <v>1814</v>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>[계단 식/계단식]</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 방식, 의식의 접미사</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2553,19 +2831,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
         <v>1815</v>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>[서양 식/서양식]</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 방식, 의식의 접미사</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2576,19 +2857,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
         <v>1816</v>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>[현대 식/현대식]</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 방식, 의식의 접미사</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2599,19 +2883,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
         <v>1817</v>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>[개업 식/개업식]</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 방식, 의식의 접미사</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2622,19 +2909,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
         <v>1818</v>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>내 힘으로 [막아 낸다/막아낸다]</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>띄어쓰기 O, X | 보조 용언은 띄어 씀을 원칙으로 하되, 경우에 따라 붙여 씀도 허용한다</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2645,19 +2935,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
         <v>1819</v>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>어머니를 [도와 드린다/도와드린다]</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>띄어쓰기 O, X | 보조 용언은 띄어 씀을 원칙으로 하되, 경우에 따라 붙여 씀도 허용한다</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2668,19 +2961,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
         <v>1820</v>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>[될 법하다/될법하다]</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>띄어쓰기 O, X | 보조 용언은 띄어 씀을 원칙으로 하되, 경우에 따라 붙여 씀도 허용한다</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2691,19 +2987,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
         <v>1821</v>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>잘도 [놀아만 나는구나!/놀아만나는구나!]</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 조사가 붙으면 보조 용언은 띄어 쓴다</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2714,19 +3013,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
         <v>1822</v>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>책을 [읽어도 보고 … / 읽어도보고…]</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 조사가 붙으면 보조 용언은 띄어 쓴다</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2737,19 +3039,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
         <v>1823</v>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>될 [법은 하다/법은하다]</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 조사가 붙으면 보조 용언은 띄어 쓴다</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2760,19 +3065,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
         <v>1824</v>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>할 [만은 하다/만은하다]</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 조사가 붙으면 보조 용언은 띄어 쓴다</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2783,19 +3091,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
         <v>1825</v>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>네가 [덤벼들어 보아라/덤벼들어보아라]</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 앞말이 합성 동사인 경우 보조 용언은 띄어 쓴다</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2806,19 +3117,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
         <v>1826</v>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>강물에 [떠내려가 버렸다/떠내려가버렸다]</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 앞말이 합성 동사인 경우 보조 용언은 띄어 쓴다</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2829,19 +3143,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
         <v>1827</v>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>[창 밖/창밖]은 가을이다</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2852,19 +3169,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
         <v>1828</v>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>손으로 [우단 천/우단천]을 결과 반대 방향으로 …</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 우단(명사) 천(명사)로 별개의 단어는 띄어쓴다. cf) '우단'은 velvet이다</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2875,19 +3195,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
         <v>1829</v>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>[30년 동안/30년동안]을 같은 자리에서 …</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 지, 만, 동안과 같이 '시간'을 나타내는 의존명사는 띄어씀</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2898,19 +3221,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
         <v>1830</v>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>하는 일이라곤 햇볕에 자신의 몸을 잿빛으로 바래는 [일 밖에/일밖에] 없다</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2921,19 +3247,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
         <v>1831</v>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>[그 때 그 곳 / 그때 그곳]</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>띄어쓰기 O, X | 단음절로 된 단어가 연이어 나타날 적에는 붙여 쓸 수 있음</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2944,19 +3273,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
         <v>1832</v>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>[좀 더 큰 것 / 좀더 큰것]</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>띄어쓰기 O, X | 단음절로 된 단어가 연이어 나타날 적에는 붙여 쓸 수 있음</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2967,19 +3299,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
         <v>1833</v>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>[지금으로 부터/지금으로부터] 십여 년 전에 작은 소요가 있었다</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -2990,19 +3325,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
         <v>1834</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>우리는 모임에서 [정한 대로/정한대로] 일정을 짤 수밖에 없다</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 의존명사는 띄어쓴다</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3013,19 +3351,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
         <v>1835</v>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>수정 [요청 시/요청시] 연관된 항목을 …</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 의존명사는 띄어쓴다</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3036,19 +3377,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
         <v>1836</v>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>그것을 감당한 능력뿐 아니라 [추진력 마저/추진력마저] 없는 사람이다</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3059,19 +3403,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
         <v>1837</v>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>그는 우리 시대의 [스승이라기 보다/스승이라기보다]는 자상한 아버지이다</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3082,19 +3429,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
         <v>1838</v>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>그는 [황소 같이/황소같이] 일을 했다</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3105,19 +3455,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
         <v>1839</v>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>하루 종일 [밥은 커녕/밥은커녕] 물 한 모금도 마시지 못했다</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3128,19 +3481,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
         <v>1840</v>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>내 모자는 [그것 하고/그것하고] 다르다</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3151,19 +3507,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
         <v>1841</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>너 말 [한 번/한번] 잘 했다</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 부사는 붙여쓴다. 두 번, 세 번으로 바꿀 수 있으면 띄어쓴다</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3174,19 +3533,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
         <v>1842</v>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>심심한데 노래나 [한 번/한번] 불러 볼까?</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 부사는 붙여쓴다. 두 번, 세 번으로 바꿀 수 있으면 띄어쓴다</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3197,19 +3559,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
         <v>1843</v>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>언제 [한 번/한번] 찾아가 뵙고 싶습니다.</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 부사는 붙여쓴다. 두 번, 세 번으로 바꿀 수 있으면 띄어쓴다</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3220,19 +3585,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
         <v>1844</v>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>우리는 겨우 일주일에 [한 번/한번]밖에 못 만난다</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 두 번, 세 번으로 바꿀 수 있으면 띄어쓴다</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3243,19 +3611,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
         <v>1845</v>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>이처럼 좋은 걸 [어떡 해/어떡해]?</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀, 어떻게 해</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3266,19 +3637,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
         <v>1846</v>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>[제 3장/제3장]의 내용을 요약해 주세요</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 제~ 는 붙여쓴다</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3289,19 +3663,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
         <v>1847</v>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>공사를 [진행한 지/진행한지] 꽤 오래되었다</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 의존명사는 띄어쓴다</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3312,19 +3689,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
         <v>1848</v>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>결혼 [10년 차/10년차]에 내 집을 장만했다</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 의존명사는 띄어쓴다</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3335,19 +3715,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
         <v>1849</v>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>[인사 차/안사차] 왔습니다</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 접미사 -차</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3358,19 +3741,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
         <v>1850</v>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>[굴 속/굴속]</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3381,19 +3767,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
         <v>1851</v>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>[물 속/물속]</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3404,19 +3793,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
         <v>1852</v>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>[바닷 속/바닷속]</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3427,19 +3819,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="n">
         <v>1853</v>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>[땅 속/땅속]</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3450,19 +3845,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="n">
         <v>1854</v>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>[마음 속/마음속]</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3473,19 +3871,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" t="n">
         <v>1855</v>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>[가슴 속/가슴속]</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3496,19 +3897,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>132</v>
+      </c>
+      <c r="C134" t="n">
         <v>1856</v>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>[머릿 속/머릿속]</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
@@ -3519,19 +3923,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>133</v>
+      </c>
+      <c r="C135" t="n">
         <v>1857</v>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>[뼛 속/뼛속]</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>

--- a/학습자료/단답형/국어_복습_띄어쓰기.xlsx
+++ b/학습자료/단답형/국어_복습_띄어쓰기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,3511 +434,4911 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.5</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.4</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>대답</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>1724</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>그는 [나 같이/나같이] 잘생겼다</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>띄어쓰기 X | like 의미로 쓰인 '같이'는 조사</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>1725</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>너와 [같이 가다/같이가다]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>띄어쓰기 O | together 의미로 쓰인 '같이'는 부사</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
         <v>1726</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>그 일을 할 사람은 [너 밖에/너밖에] 없다</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>띄어쓰기 X | only 의미로 쓰인 '밖에'는 조사</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
       </c>
       <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
         <v>1727</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[집 밖에/집밖에] 나가라</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>띄어쓰기 O | outside 의미로 쓰인 '밖에'는 부사</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
       </c>
       <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
         <v>1728</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[천 원은 커녕/천 원은커녕]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '은커녕'은 조사</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
         <v>1729</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>그의 [말 마따나/말마따나]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '마따나'는 조사</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
       </c>
       <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
         <v>1730</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[하겠냐 마는/하겠나마는]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '마는'은 조사</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
       </c>
       <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
         <v>1731</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[날 마다/날마다] 일했다</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '마다'는 조사</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>8</v>
       </c>
       <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
         <v>1732</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[동물 치고/동물치고] 똑똑하다</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '치고'는 조사</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>9</v>
       </c>
       <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
         <v>1733</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[그야 말로/그야말로] 최고</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '(이)야말로'는 조사</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>10</v>
       </c>
       <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
         <v>1734</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[짐승인 들/짐승인들] 이보다 잔혹하랴</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '(이)ㄴ들'은 조사</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>11</v>
       </c>
       <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
         <v>1735</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>그런 학생은 어느 [학교에서 껀/학교에서껀] 있다</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '서껀'은 조사, cf) 서건X, 서껀O</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
       </c>
       <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
         <v>1736</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>참 [딱하데 그려/딱하데그려]</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '그려'는 조사</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>13</v>
       </c>
       <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
         <v>1737</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[아는 것/아는것]이 힘이다</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '것'은 의존명사</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>14</v>
       </c>
       <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
         <v>1738</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>나도 [할 수 있다/할수있다]</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '수'는 의존명사</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>15</v>
       </c>
       <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
         <v>1739</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[먹을 만큼/먹을만큼] 먹어라</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '만큼'은 의존명사</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>16</v>
       </c>
       <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
         <v>1740</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[아는 이/아는이]를 만났다</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '이'는 의존명사</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>17</v>
       </c>
       <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="n">
         <v>1741</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>네가 [뜻한 바/뜻한바]를 알겠다</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '바'는 의존명사</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>18</v>
       </c>
       <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="n">
         <v>1742</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>그가 [떠난 지/떠난지]가 오래다</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '지'는 의존명사</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>19</v>
       </c>
       <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="n">
         <v>1743</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[한 개/한 개]</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 단위를 나타내는 명사는 띄어 쓴다</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>20</v>
       </c>
       <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
         <v>1744</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>차 [한 대/한대]</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 단위를 나타내는 명사는 띄어 쓴다</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>21</v>
       </c>
       <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="n">
         <v>1745</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>금 [서 돈/서돈]</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 단위를 나타내는 명사는 띄어 쓴다</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>22</v>
       </c>
       <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="n">
         <v>1746</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>소 [한 마리/한마리]</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 단위를 나타내는 명사는 띄어 쓴다</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>23</v>
       </c>
       <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" t="n">
         <v>1747</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[두 시/두시](2 o'clock)</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>띄어쓰기 O, X | 띄어쓰는게 원칙이나 붙여쓰는 것도 허용</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>24</v>
       </c>
       <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="n">
         <v>1748</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[먹을 걸/먹을걸] 가져오렴</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '걸'은 의존명사</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>25</v>
       </c>
       <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" t="n">
         <v>1749</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>선물을 [줄 걸/줄걸]</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '-ㄹ걸'은 종결어미</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>26</v>
       </c>
       <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" t="n">
         <v>1750</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>너보다 키가 더 [클 걸/클걸]</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '-ㄹ걸'은 종결어미</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>27</v>
       </c>
       <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27</v>
+      </c>
+      <c r="F29" t="n">
         <v>1751</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[약속한 대로/약속한대로]</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '대로'는 의존명사로 쓰임</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>28</v>
       </c>
       <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28</v>
+      </c>
+      <c r="F30" t="n">
         <v>1752</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[너 대로/너대로]</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '대로'는 조사로 쓰임</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>29</v>
       </c>
       <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" t="n">
         <v>1753</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[법 대로/법대로]</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '대로'는 조사로 쓰임</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>30</v>
       </c>
       <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" t="n">
         <v>1754</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[약속 대로/약속대로]</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '대로'는 조사로 쓰임</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>31</v>
       </c>
       <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" t="n">
         <v>1755</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[볼 만큼/볼만큼] 보았다</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '만큼'은 의존명사</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>32</v>
       </c>
       <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" t="n">
         <v>1756</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[할 만큼/할만큼] 했다</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '만큼'은 의존명사</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>33</v>
       </c>
       <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" t="n">
         <v>1757</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>나도 [엄마 만큼/엄마만큼] 컸다</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '만큼'은 조사로 쓰임</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>34</v>
       </c>
       <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>34</v>
+      </c>
+      <c r="F36" t="n">
         <v>1758</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[웃을 뿐/웃을뿐]이다</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '뿐'은 의존명사</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>35</v>
       </c>
       <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>35</v>
+      </c>
+      <c r="F37" t="n">
         <v>1759</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[할 뿐/할뿐]이다</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '뿐'은 의존명사</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>36</v>
       </c>
       <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>36</v>
+      </c>
+      <c r="F38" t="n">
         <v>1760</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[엄마 뿐/엄마뿐]이다</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '뿐'은 조사</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>37</v>
       </c>
       <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="n">
+        <v>37</v>
+      </c>
+      <c r="F39" t="n">
         <v>1761</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[떠난 지/떠난지]</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '지'는 의존명사, 시간의 경과</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>38</v>
       </c>
       <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="n">
+        <v>38</v>
+      </c>
+      <c r="F40" t="n">
         <v>1762</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[큰 지 작은 지/큰지 작은지]</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 'ㄴ지'는 어미, 시간 X</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>39</v>
       </c>
       <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="n">
+        <v>39</v>
+      </c>
+      <c r="F41" t="n">
         <v>1763</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[오는 지/오는지]</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 'ㄴ지'는 어미, 시간 X</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>40</v>
       </c>
       <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="n">
+        <v>40</v>
+      </c>
+      <c r="F42" t="n">
         <v>1764</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[얼마 만인가?/얼마만인가?]</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '만'은 의존명사, 시간의 경과</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>41</v>
       </c>
       <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" t="n">
+        <v>41</v>
+      </c>
+      <c r="F43" t="n">
         <v>1765</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[2년 만에/2년만에]</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '만'은 의존명사, 시간의 경과</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>42</v>
       </c>
       <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="n">
+        <v>42</v>
+      </c>
+      <c r="F44" t="n">
         <v>1766</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[밥 만/밥만] 먹다</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '만'은 조사, 시간 X</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>43</v>
       </c>
       <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="n">
+        <v>43</v>
+      </c>
+      <c r="F45" t="n">
         <v>1767</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[짐승 만도/짐승만도] 못하다</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '만'은 조사, 시간 X</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>44</v>
       </c>
       <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="n">
+        <v>44</v>
+      </c>
+      <c r="F46" t="n">
         <v>1768</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[오랜 만/오랜만]</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>45</v>
       </c>
       <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="n">
+        <v>45</v>
+      </c>
+      <c r="F47" t="n">
         <v>1769</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[오랫 동안/오랫동안]</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>46</v>
       </c>
       <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>46</v>
+      </c>
+      <c r="F48" t="n">
         <v>1770</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[의지할 데/의지할데] 없는</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '데'는 의존명사 (곳, 장소, 일, 것, 경우)</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>47</v>
       </c>
       <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="n">
+        <v>47</v>
+      </c>
+      <c r="F49" t="n">
         <v>1771</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[가까운 데다가/가까운데다가]</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '데'는 의존명사 (곳, 장소, 일, 것, 경우)</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>48</v>
       </c>
       <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" t="n">
+        <v>48</v>
+      </c>
+      <c r="F50" t="n">
         <v>1772</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[예쁜 데다가/예쁜데다가]</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '데'는 의존명사 (곳, 장소, 일, 것, 경우)</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>49</v>
       </c>
       <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="n">
+        <v>49</v>
+      </c>
+      <c r="F51" t="n">
         <v>1773</v>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>아주 [잘하 데/잘하데]</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '데'는 어미</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
         <v>50</v>
       </c>
       <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" t="n">
         <v>1774</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[둘이 데/둘이데]</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>띄어쓰기 X | '데'는 어미</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
         <v>51</v>
       </c>
       <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="n">
+        <v>51</v>
+      </c>
+      <c r="E53" t="n">
+        <v>51</v>
+      </c>
+      <c r="F53" t="n">
         <v>1775</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>나무가 정말 [큰 데/큰데]</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 'ㄴ데'는 어미</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>52</v>
       </c>
       <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="n">
+        <v>52</v>
+      </c>
+      <c r="E54" t="n">
+        <v>52</v>
+      </c>
+      <c r="F54" t="n">
         <v>1776</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>열심히 공부 [했는 데/했는데] 떨어졌다</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 'ㄴ데'는 어미</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>53</v>
       </c>
       <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="n">
+        <v>53</v>
+      </c>
+      <c r="E55" t="n">
+        <v>53</v>
+      </c>
+      <c r="F55" t="n">
         <v>1777</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[지적한 바와/지적한바와] 같이</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '바'는 의존명사 (자체, 일 따위를 나타낼 때는 의존명사)</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
         <v>54</v>
       </c>
       <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="n">
+        <v>54</v>
+      </c>
+      <c r="E56" t="n">
+        <v>54</v>
+      </c>
+      <c r="F56" t="n">
         <v>1778</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>그 일을 [할 바에는/할바에는] 감옥에 가겠다</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>띄어쓰기 O | '바'는 의존명사 (자체, 일 따위를 나타낼 때는 의존명사)</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
         <v>55</v>
       </c>
       <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" t="n">
+        <v>55</v>
+      </c>
+      <c r="F57" t="n">
         <v>1779</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>학문에 뜻을 [두셨던 바/두셨던바] 드디어 결실을 맺었다</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 'ㄴ바'는 어미</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
         <v>56</v>
       </c>
       <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="n">
+        <v>56</v>
+      </c>
+      <c r="E58" t="n">
+        <v>56</v>
+      </c>
+      <c r="F58" t="n">
         <v>1780</v>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>통보하여 [온 바/온바] 이를 알립니다</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 'ㄴ바'는 어미</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
         <v>57</v>
       </c>
       <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="n">
+        <v>57</v>
+      </c>
+      <c r="E59" t="n">
+        <v>57</v>
+      </c>
+      <c r="F59" t="n">
         <v>1781</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[영웅 중/영웅중]의 영웅</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>띄어쓰기 O | -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
         <v>58</v>
       </c>
       <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60" t="n">
+        <v>58</v>
+      </c>
+      <c r="F60" t="n">
         <v>1782</v>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[너희 중/너희중]에 누가</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>띄어쓰기 O | -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
         <v>59</v>
       </c>
       <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="n">
+        <v>59</v>
+      </c>
+      <c r="E61" t="n">
+        <v>59</v>
+      </c>
+      <c r="F61" t="n">
         <v>1783</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[여행하던 중/여행하던중]에</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>띄어쓰기 O | -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
         <v>60</v>
       </c>
       <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" t="n">
+        <v>60</v>
+      </c>
+      <c r="F62" t="n">
         <v>1784</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[근무 중/근무중]</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>띄어쓰기 O | -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
         <v>61</v>
       </c>
       <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="n">
+        <v>61</v>
+      </c>
+      <c r="E63" t="n">
+        <v>61</v>
+      </c>
+      <c r="F63" t="n">
         <v>1785</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>[회의 중/회의중]</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>띄어쓰기 O | -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
         <v>62</v>
       </c>
       <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="n">
+        <v>62</v>
+      </c>
+      <c r="E64" t="n">
+        <v>62</v>
+      </c>
+      <c r="F64" t="n">
         <v>1786</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>[그러던 중/그러던중]</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>띄어쓰기 O | -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
         <v>63</v>
       </c>
       <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="n">
+        <v>63</v>
+      </c>
+      <c r="E65" t="n">
+        <v>63</v>
+      </c>
+      <c r="F65" t="n">
         <v>1787</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>[그 중/그중]</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
         <v>64</v>
       </c>
       <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="n">
+        <v>64</v>
+      </c>
+      <c r="E66" t="n">
+        <v>64</v>
+      </c>
+      <c r="F66" t="n">
         <v>1788</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>[총망 중/총망중]</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
         <v>65</v>
       </c>
       <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="n">
+        <v>65</v>
+      </c>
+      <c r="E67" t="n">
+        <v>65</v>
+      </c>
+      <c r="F67" t="n">
         <v>1789</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>[허공 중/허공중]</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
         <v>66</v>
       </c>
       <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="n">
+        <v>66</v>
+      </c>
+      <c r="E68" t="n">
+        <v>66</v>
+      </c>
+      <c r="F68" t="n">
         <v>1790</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>[은연 중/은연중]</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
         <v>67</v>
       </c>
       <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="n">
+        <v>67</v>
+      </c>
+      <c r="E69" t="n">
+        <v>67</v>
+      </c>
+      <c r="F69" t="n">
         <v>1791</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>[한밤 중/한밤중]</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
         <v>68</v>
       </c>
       <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="n">
+        <v>68</v>
+      </c>
+      <c r="E70" t="n">
+        <v>68</v>
+      </c>
+      <c r="F70" t="n">
         <v>1792</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>[야밤 중/야밤중]</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
         <v>69</v>
       </c>
       <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="n">
+        <v>69</v>
+      </c>
+      <c r="E71" t="n">
+        <v>69</v>
+      </c>
+      <c r="F71" t="n">
         <v>1793</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>[밤 중/밤중]</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
         <v>70</v>
       </c>
       <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="n">
+        <v>70</v>
+      </c>
+      <c r="E72" t="n">
+        <v>70</v>
+      </c>
+      <c r="F72" t="n">
         <v>1794</v>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>[부재 중/부재중]</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
         <v>71</v>
       </c>
       <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="n">
+        <v>71</v>
+      </c>
+      <c r="E73" t="n">
+        <v>71</v>
+      </c>
+      <c r="F73" t="n">
         <v>1795</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>[부지 중/부지중]</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
         <v>72</v>
       </c>
       <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="n">
+        <v>72</v>
+      </c>
+      <c r="E74" t="n">
+        <v>72</v>
+      </c>
+      <c r="F74" t="n">
         <v>1796</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>[부지불식 중/부지불식중]</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
         <v>73</v>
       </c>
       <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="n">
+        <v>73</v>
+      </c>
+      <c r="E75" t="n">
+        <v>73</v>
+      </c>
+      <c r="F75" t="n">
         <v>1797</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>[무망 중/무망중]</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
         <v>74</v>
       </c>
       <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="n">
+        <v>74</v>
+      </c>
+      <c r="E76" t="n">
+        <v>74</v>
+      </c>
+      <c r="F76" t="n">
         <v>1798</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>[무심 중/무심중]</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
         <v>75</v>
       </c>
       <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="n">
+        <v>75</v>
+      </c>
+      <c r="E77" t="n">
+        <v>75</v>
+      </c>
+      <c r="F77" t="n">
         <v>1799</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>[무의식 중/무의식중]</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
         <v>76</v>
       </c>
       <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="n">
+        <v>76</v>
+      </c>
+      <c r="E78" t="n">
+        <v>76</v>
+      </c>
+      <c r="F78" t="n">
         <v>1800</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>[무언 중/무언중]</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
         <v>77</v>
       </c>
       <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="n">
+        <v>77</v>
+      </c>
+      <c r="E79" t="n">
+        <v>77</v>
+      </c>
+      <c r="F79" t="n">
         <v>1801</v>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>[열 시/열시]에 만난다</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 시각, 어떤 일이나 현상일 경우 의존명사</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
         <v>78</v>
       </c>
       <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="n">
+        <v>78</v>
+      </c>
+      <c r="E80" t="n">
+        <v>78</v>
+      </c>
+      <c r="F80" t="n">
         <v>1802</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>[비행 시/비행시]에는</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 시각, 어떤 일이나 현상일 경우 의존명사</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
         <v>79</v>
       </c>
       <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="n">
+        <v>79</v>
+      </c>
+      <c r="E81" t="n">
+        <v>79</v>
+      </c>
+      <c r="F81" t="n">
         <v>1803</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>규칙을 [어겼을 시/어겼을시]에는</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 시각, 어떤 일이나 현상일 경우 의존명사</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
         <v>80</v>
       </c>
       <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="n">
+        <v>80</v>
+      </c>
+      <c r="E82" t="n">
+        <v>80</v>
+      </c>
+      <c r="F82" t="n">
         <v>1804</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>[등한 시/등한시]</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 접미사 -시, 부정적 의미</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
         <v>81</v>
       </c>
       <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="n">
+        <v>81</v>
+      </c>
+      <c r="E83" t="n">
+        <v>81</v>
+      </c>
+      <c r="F83" t="n">
         <v>1805</v>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>[백안 시/백안시]</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 접미사 -시, 부정적 의미</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
         <v>82</v>
       </c>
       <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="n">
+        <v>82</v>
+      </c>
+      <c r="E84" t="n">
+        <v>82</v>
+      </c>
+      <c r="F84" t="n">
         <v>1806</v>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>[적대 시/적대시]</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 접미사 -시, 부정적 의미</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
         <v>83</v>
       </c>
       <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="n">
+        <v>83</v>
+      </c>
+      <c r="E85" t="n">
+        <v>83</v>
+      </c>
+      <c r="F85" t="n">
         <v>1807</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>[도외 시/도외시]</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 접미사 -시, 부정적 의미</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
         <v>84</v>
       </c>
       <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="n">
+        <v>84</v>
+      </c>
+      <c r="E86" t="n">
+        <v>84</v>
+      </c>
+      <c r="F86" t="n">
         <v>1808</v>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>[조선 초/조선초]</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 기간의 처음, 초기의 의존명사</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
         <v>85</v>
       </c>
       <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="n">
+        <v>85</v>
+      </c>
+      <c r="E87" t="n">
+        <v>85</v>
+      </c>
+      <c r="F87" t="n">
         <v>1809</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>[20C 초/20C초]</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 기간의 처음, 초기의 의존명사</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
         <v>86</v>
       </c>
       <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="n">
+        <v>86</v>
+      </c>
+      <c r="E88" t="n">
+        <v>86</v>
+      </c>
+      <c r="F88" t="n">
         <v>1810</v>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>[내년 초/내년초]</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 기간의 처음, 초기의 의존명사</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
         <v>87</v>
       </c>
       <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="n">
+        <v>87</v>
+      </c>
+      <c r="E89" t="n">
+        <v>87</v>
+      </c>
+      <c r="F89" t="n">
         <v>1811</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>[초 봄/초봄]</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 처음, 초기의 접두사</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
         <v>88</v>
       </c>
       <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="n">
+        <v>88</v>
+      </c>
+      <c r="E90" t="n">
+        <v>88</v>
+      </c>
+      <c r="F90" t="n">
         <v>1812</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>[초 겨울/초겨울]</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 처음, 초기의 접두사</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
         <v>89</v>
       </c>
       <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="n">
+        <v>89</v>
+      </c>
+      <c r="E91" t="n">
+        <v>89</v>
+      </c>
+      <c r="F91" t="n">
         <v>1813</v>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>[그런 식으로/그런식으로] 말하지 마</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 일정하게 굳어진 말투, 방식, 습관을 의미하는 의존명사</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
         <v>90</v>
       </c>
       <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="n">
+        <v>90</v>
+      </c>
+      <c r="E92" t="n">
+        <v>90</v>
+      </c>
+      <c r="F92" t="n">
         <v>1814</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>[계단 식/계단식]</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 방식, 의식의 접미사</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
         <v>91</v>
       </c>
       <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="n">
+        <v>91</v>
+      </c>
+      <c r="E93" t="n">
+        <v>91</v>
+      </c>
+      <c r="F93" t="n">
         <v>1815</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>[서양 식/서양식]</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 방식, 의식의 접미사</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
         <v>92</v>
       </c>
       <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="n">
+        <v>92</v>
+      </c>
+      <c r="E94" t="n">
+        <v>92</v>
+      </c>
+      <c r="F94" t="n">
         <v>1816</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>[현대 식/현대식]</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 방식, 의식의 접미사</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
         <v>93</v>
       </c>
       <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="n">
+        <v>93</v>
+      </c>
+      <c r="E95" t="n">
+        <v>93</v>
+      </c>
+      <c r="F95" t="n">
         <v>1817</v>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>[개업 식/개업식]</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 방식, 의식의 접미사</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
         <v>94</v>
       </c>
       <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="n">
+        <v>94</v>
+      </c>
+      <c r="E96" t="n">
+        <v>94</v>
+      </c>
+      <c r="F96" t="n">
         <v>1818</v>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>내 힘으로 [막아 낸다/막아낸다]</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>띄어쓰기 O, X | 보조 용언은 띄어 씀을 원칙으로 하되, 경우에 따라 붙여 씀도 허용한다</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
         <v>95</v>
       </c>
       <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="n">
+        <v>95</v>
+      </c>
+      <c r="E97" t="n">
+        <v>95</v>
+      </c>
+      <c r="F97" t="n">
         <v>1819</v>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>어머니를 [도와 드린다/도와드린다]</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>띄어쓰기 O, X | 보조 용언은 띄어 씀을 원칙으로 하되, 경우에 따라 붙여 씀도 허용한다</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
         <v>96</v>
       </c>
       <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="n">
+        <v>96</v>
+      </c>
+      <c r="E98" t="n">
+        <v>96</v>
+      </c>
+      <c r="F98" t="n">
         <v>1820</v>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>[될 법하다/될법하다]</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>띄어쓰기 O, X | 보조 용언은 띄어 씀을 원칙으로 하되, 경우에 따라 붙여 씀도 허용한다</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
         <v>97</v>
       </c>
       <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="n">
+        <v>97</v>
+      </c>
+      <c r="E99" t="n">
+        <v>97</v>
+      </c>
+      <c r="F99" t="n">
         <v>1821</v>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>잘도 [놀아만 나는구나!/놀아만나는구나!]</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 조사가 붙으면 보조 용언은 띄어 쓴다</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
         <v>98</v>
       </c>
       <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="n">
+        <v>98</v>
+      </c>
+      <c r="E100" t="n">
+        <v>98</v>
+      </c>
+      <c r="F100" t="n">
         <v>1822</v>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>책을 [읽어도 보고 … / 읽어도보고…]</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 조사가 붙으면 보조 용언은 띄어 쓴다</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
         <v>99</v>
       </c>
       <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="n">
+        <v>99</v>
+      </c>
+      <c r="E101" t="n">
+        <v>99</v>
+      </c>
+      <c r="F101" t="n">
         <v>1823</v>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>될 [법은 하다/법은하다]</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 조사가 붙으면 보조 용언은 띄어 쓴다</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
         <v>100</v>
       </c>
       <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="n">
+        <v>100</v>
+      </c>
+      <c r="E102" t="n">
+        <v>100</v>
+      </c>
+      <c r="F102" t="n">
         <v>1824</v>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>할 [만은 하다/만은하다]</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 조사가 붙으면 보조 용언은 띄어 쓴다</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
         <v>101</v>
       </c>
       <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="n">
+        <v>101</v>
+      </c>
+      <c r="E103" t="n">
+        <v>101</v>
+      </c>
+      <c r="F103" t="n">
         <v>1825</v>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>네가 [덤벼들어 보아라/덤벼들어보아라]</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 앞말이 합성 동사인 경우 보조 용언은 띄어 쓴다</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
         <v>102</v>
       </c>
       <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="n">
+        <v>102</v>
+      </c>
+      <c r="E104" t="n">
+        <v>102</v>
+      </c>
+      <c r="F104" t="n">
         <v>1826</v>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>강물에 [떠내려가 버렸다/떠내려가버렸다]</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 앞말이 합성 동사인 경우 보조 용언은 띄어 쓴다</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
         <v>103</v>
       </c>
       <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="n">
+        <v>103</v>
+      </c>
+      <c r="E105" t="n">
+        <v>103</v>
+      </c>
+      <c r="F105" t="n">
         <v>1827</v>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>[창 밖/창밖]은 가을이다</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
         <v>104</v>
       </c>
       <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="n">
+        <v>104</v>
+      </c>
+      <c r="E106" t="n">
+        <v>104</v>
+      </c>
+      <c r="F106" t="n">
         <v>1828</v>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>손으로 [우단 천/우단천]을 결과 반대 방향으로 …</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 우단(명사) 천(명사)로 별개의 단어는 띄어쓴다. cf) '우단'은 velvet이다</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
         <v>105</v>
       </c>
       <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="n">
+        <v>105</v>
+      </c>
+      <c r="E107" t="n">
+        <v>105</v>
+      </c>
+      <c r="F107" t="n">
         <v>1829</v>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>[30년 동안/30년동안]을 같은 자리에서 …</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 지, 만, 동안과 같이 '시간'을 나타내는 의존명사는 띄어씀</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
         <v>106</v>
       </c>
       <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="n">
+        <v>106</v>
+      </c>
+      <c r="E108" t="n">
+        <v>106</v>
+      </c>
+      <c r="F108" t="n">
         <v>1830</v>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>하는 일이라곤 햇볕에 자신의 몸을 잿빛으로 바래는 [일 밖에/일밖에] 없다</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
         <v>107</v>
       </c>
       <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="n">
+        <v>107</v>
+      </c>
+      <c r="E109" t="n">
+        <v>107</v>
+      </c>
+      <c r="F109" t="n">
         <v>1831</v>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>[그 때 그 곳 / 그때 그곳]</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>띄어쓰기 O, X | 단음절로 된 단어가 연이어 나타날 적에는 붙여 쓸 수 있음</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
         <v>108</v>
       </c>
       <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="n">
+        <v>108</v>
+      </c>
+      <c r="E110" t="n">
+        <v>108</v>
+      </c>
+      <c r="F110" t="n">
         <v>1832</v>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>[좀 더 큰 것 / 좀더 큰것]</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>띄어쓰기 O, X | 단음절로 된 단어가 연이어 나타날 적에는 붙여 쓸 수 있음</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
         <v>109</v>
       </c>
       <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="n">
+        <v>109</v>
+      </c>
+      <c r="E111" t="n">
+        <v>109</v>
+      </c>
+      <c r="F111" t="n">
         <v>1833</v>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>[지금으로 부터/지금으로부터] 십여 년 전에 작은 소요가 있었다</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
         <v>110</v>
       </c>
       <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="n">
+        <v>110</v>
+      </c>
+      <c r="E112" t="n">
+        <v>110</v>
+      </c>
+      <c r="F112" t="n">
         <v>1834</v>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>우리는 모임에서 [정한 대로/정한대로] 일정을 짤 수밖에 없다</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 의존명사는 띄어쓴다</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
         <v>111</v>
       </c>
       <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="n">
+        <v>111</v>
+      </c>
+      <c r="E113" t="n">
+        <v>111</v>
+      </c>
+      <c r="F113" t="n">
         <v>1835</v>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>수정 [요청 시/요청시] 연관된 항목을 …</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 의존명사는 띄어쓴다</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
         <v>112</v>
       </c>
       <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="n">
+        <v>112</v>
+      </c>
+      <c r="E114" t="n">
+        <v>112</v>
+      </c>
+      <c r="F114" t="n">
         <v>1836</v>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>그것을 감당한 능력뿐 아니라 [추진력 마저/추진력마저] 없는 사람이다</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
         <v>113</v>
       </c>
       <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="n">
+        <v>113</v>
+      </c>
+      <c r="E115" t="n">
+        <v>113</v>
+      </c>
+      <c r="F115" t="n">
         <v>1837</v>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>그는 우리 시대의 [스승이라기 보다/스승이라기보다]는 자상한 아버지이다</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
         <v>114</v>
       </c>
       <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="n">
+        <v>114</v>
+      </c>
+      <c r="E116" t="n">
+        <v>114</v>
+      </c>
+      <c r="F116" t="n">
         <v>1838</v>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>그는 [황소 같이/황소같이] 일을 했다</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
         <v>115</v>
       </c>
       <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="n">
+        <v>115</v>
+      </c>
+      <c r="E117" t="n">
+        <v>115</v>
+      </c>
+      <c r="F117" t="n">
         <v>1839</v>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>하루 종일 [밥은 커녕/밥은커녕] 물 한 모금도 마시지 못했다</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
         <v>116</v>
       </c>
       <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="n">
+        <v>116</v>
+      </c>
+      <c r="E118" t="n">
+        <v>116</v>
+      </c>
+      <c r="F118" t="n">
         <v>1840</v>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>내 모자는 [그것 하고/그것하고] 다르다</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 조사는 붙여쓴다</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
         <v>117</v>
       </c>
       <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="n">
+        <v>117</v>
+      </c>
+      <c r="E119" t="n">
+        <v>117</v>
+      </c>
+      <c r="F119" t="n">
         <v>1841</v>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>너 말 [한 번/한번] 잘 했다</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 부사는 붙여쓴다. 두 번, 세 번으로 바꿀 수 있으면 띄어쓴다</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
         <v>118</v>
       </c>
       <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="n">
+        <v>118</v>
+      </c>
+      <c r="E120" t="n">
+        <v>118</v>
+      </c>
+      <c r="F120" t="n">
         <v>1842</v>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>심심한데 노래나 [한 번/한번] 불러 볼까?</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 부사는 붙여쓴다. 두 번, 세 번으로 바꿀 수 있으면 띄어쓴다</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
         <v>119</v>
       </c>
       <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="n">
+        <v>119</v>
+      </c>
+      <c r="E121" t="n">
+        <v>119</v>
+      </c>
+      <c r="F121" t="n">
         <v>1843</v>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>언제 [한 번/한번] 찾아가 뵙고 싶습니다.</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 부사는 붙여쓴다. 두 번, 세 번으로 바꿀 수 있으면 띄어쓴다</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
         <v>120</v>
       </c>
       <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="n">
+        <v>120</v>
+      </c>
+      <c r="E122" t="n">
+        <v>120</v>
+      </c>
+      <c r="F122" t="n">
         <v>1844</v>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>우리는 겨우 일주일에 [한 번/한번]밖에 못 만난다</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 두 번, 세 번으로 바꿀 수 있으면 띄어쓴다</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
         <v>121</v>
       </c>
       <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="n">
+        <v>121</v>
+      </c>
+      <c r="E123" t="n">
+        <v>121</v>
+      </c>
+      <c r="F123" t="n">
         <v>1845</v>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>이처럼 좋은 걸 [어떡 해/어떡해]?</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀, 어떻게 해</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
         <v>122</v>
       </c>
       <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="n">
+        <v>122</v>
+      </c>
+      <c r="E124" t="n">
+        <v>122</v>
+      </c>
+      <c r="F124" t="n">
         <v>1846</v>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>[제 3장/제3장]의 내용을 요약해 주세요</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 제~ 는 붙여쓴다</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
         <v>123</v>
       </c>
       <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="n">
+        <v>123</v>
+      </c>
+      <c r="E125" t="n">
+        <v>123</v>
+      </c>
+      <c r="F125" t="n">
         <v>1847</v>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>공사를 [진행한 지/진행한지] 꽤 오래되었다</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 의존명사는 띄어쓴다</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
         <v>124</v>
       </c>
       <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="n">
+        <v>124</v>
+      </c>
+      <c r="E126" t="n">
+        <v>124</v>
+      </c>
+      <c r="F126" t="n">
         <v>1848</v>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>결혼 [10년 차/10년차]에 내 집을 장만했다</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>띄어쓰기 O | 의존명사는 띄어쓴다</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
         <v>125</v>
       </c>
       <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="n">
+        <v>125</v>
+      </c>
+      <c r="E127" t="n">
+        <v>125</v>
+      </c>
+      <c r="F127" t="n">
         <v>1849</v>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>[인사 차/안사차] 왔습니다</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 접미사 -차</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
         <v>126</v>
       </c>
       <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="n">
+        <v>126</v>
+      </c>
+      <c r="E128" t="n">
+        <v>126</v>
+      </c>
+      <c r="F128" t="n">
         <v>1850</v>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>[굴 속/굴속]</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
         <v>127</v>
       </c>
       <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="n">
+        <v>127</v>
+      </c>
+      <c r="E129" t="n">
+        <v>127</v>
+      </c>
+      <c r="F129" t="n">
         <v>1851</v>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>[물 속/물속]</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
         <v>128</v>
       </c>
       <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="n">
+        <v>128</v>
+      </c>
+      <c r="E130" t="n">
+        <v>128</v>
+      </c>
+      <c r="F130" t="n">
         <v>1852</v>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>[바닷 속/바닷속]</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
         <v>129</v>
       </c>
       <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="n">
+        <v>129</v>
+      </c>
+      <c r="E131" t="n">
+        <v>129</v>
+      </c>
+      <c r="F131" t="n">
         <v>1853</v>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>[땅 속/땅속]</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
         <v>130</v>
       </c>
       <c r="C132" t="n">
+        <v>130</v>
+      </c>
+      <c r="D132" t="n">
+        <v>130</v>
+      </c>
+      <c r="E132" t="n">
+        <v>130</v>
+      </c>
+      <c r="F132" t="n">
         <v>1854</v>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>[마음 속/마음속]</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
         <v>131</v>
       </c>
       <c r="C133" t="n">
+        <v>131</v>
+      </c>
+      <c r="D133" t="n">
+        <v>131</v>
+      </c>
+      <c r="E133" t="n">
+        <v>131</v>
+      </c>
+      <c r="F133" t="n">
         <v>1855</v>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>[가슴 속/가슴속]</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
         <v>132</v>
       </c>
       <c r="C134" t="n">
+        <v>132</v>
+      </c>
+      <c r="D134" t="n">
+        <v>132</v>
+      </c>
+      <c r="E134" t="n">
+        <v>132</v>
+      </c>
+      <c r="F134" t="n">
         <v>1856</v>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>[머릿 속/머릿속]</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
         <v>133</v>
       </c>
       <c r="C135" t="n">
+        <v>133</v>
+      </c>
+      <c r="D135" t="n">
+        <v>133</v>
+      </c>
+      <c r="E135" t="n">
+        <v>133</v>
+      </c>
+      <c r="F135" t="n">
         <v>1857</v>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>[뼛 속/뼛속]</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>띄어쓰기 X | 한 단어이므로 붙여 씀</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>띄어쓰기</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>134</v>
+      </c>
+      <c r="C136" t="n">
+        <v>157</v>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>[두 시/두시](2 o'clock)</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O &amp; X | 띄어쓰는게 원칙이나 붙여쓰는 것도 허용</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>띄어쓰기</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>135</v>
+      </c>
+      <c r="C137" t="n">
+        <v>228</v>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>내 힘으로 [막아 낸다/막아낸다]</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O &amp; X | 보조 용언은 띄어 씀을 원칙으로 하되, 경우에 따라 붙여 씀도 허용한다</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>띄어쓰기</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>136</v>
+      </c>
+      <c r="C138" t="n">
+        <v>229</v>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>어머니를 [도와 드린다/도와드린다]</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O &amp; X | 보조 용언은 띄어 씀을 원칙으로 하되, 경우에 따라 붙여 씀도 허용한다</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>띄어쓰기</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>137</v>
+      </c>
+      <c r="C139" t="n">
+        <v>230</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>[될 법하다/될법하다]</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O &amp; X | 보조 용언은 띄어 씀을 원칙으로 하되, 경우에 따라 붙여 씀도 허용한다</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>띄어쓰기</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>138</v>
+      </c>
+      <c r="C140" t="n">
+        <v>241</v>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>[그 때 그 곳 / 그때 그곳]</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O &amp; X | 단음절로 된 단어가 연이어 나타날 적에는 붙여 쓸 수 있음</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>띄어쓰기</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>139</v>
+      </c>
+      <c r="C141" t="n">
+        <v>242</v>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>[좀 더 큰 것 / 좀더 큰것]</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O &amp; X | 단음절로 된 단어가 연이어 나타날 적에는 붙여 쓸 수 있음</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>띄어쓰기</t>
         </is>

--- a/학습자료/단답형/국어_복습_띄어쓰기.xlsx
+++ b/학습자료/단답형/국어_복습_띄어쓰기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5344,6 +5344,75 @@
         </is>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>네가 [덤벼들어 보아라/덤벼들어보아라]</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O | 앞말이 합성 동사인 경우 보조 용언은 띄어 쓴다</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>띄어쓰기</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>강물에 [떠내려가 버렸다/떠내려가버렸다]</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O | 앞말이 합성 동사인 경우 보조 용언은 띄어 쓴다</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>띄어쓰기</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>그것을 감당할 능력뿐 아니라 [추진력 마저/추진력마저] 없는 사람이다</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X | 조사는 붙여쓴다</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>띄어쓰기</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
